--- a/datos_relu_verifbounds_target1_tolper5_mix.xlsx
+++ b/datos_relu_verifbounds_target1_tolper5_mix.xlsx
@@ -429,10 +429,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>0.005741596221923828</v>
+        <v>0.005939245223999023</v>
       </c>
       <c r="D1" t="n">
-        <v>0.1407768964767456</v>
+        <v>0.1496996402740479</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>4.81392</v>
+        <v>5.290519999999999</v>
       </c>
       <c r="H1" t="n">
-        <v>6.64775</v>
+        <v>7.33001</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -469,13 +469,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005707359313964844</v>
+        <v>0.005596685409545899</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05033636093139648</v>
+        <v>0.05233974456787109</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07009692192077636</v>
+        <v>0.07230122089385986</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.42458</v>
+        <v>4.8625</v>
       </c>
       <c r="H2" t="n">
-        <v>6.13984</v>
+        <v>6.73228</v>
       </c>
       <c r="I2" t="n">
-        <v>6.266850000000001</v>
+        <v>6.86113</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -505,28 +505,28 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005158758163452149</v>
+        <v>0.00540766716003418</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3357292652130127</v>
+        <v>0.1971757888793945</v>
       </c>
       <c r="E3" t="n">
-        <v>1.760744428634644</v>
+        <v>5.205176782608032</v>
       </c>
       <c r="F3" t="n">
-        <v>2.769286632537842</v>
+        <v>6.232139253616333</v>
       </c>
       <c r="G3" t="n">
-        <v>4.18824</v>
+        <v>4.60198</v>
       </c>
       <c r="H3" t="n">
-        <v>5.01744</v>
+        <v>5.504440000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>5.582699999999999</v>
+        <v>6.12466</v>
       </c>
       <c r="J3" t="n">
-        <v>6.64898</v>
+        <v>7.236930000000001</v>
       </c>
     </row>
     <row r="4">
@@ -537,10 +537,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006323313713073731</v>
+        <v>0.006914377212524414</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5930701494216919</v>
+        <v>1.052218365669251</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.78127</v>
+        <v>4.15493</v>
       </c>
       <c r="H4" t="n">
-        <v>6.007429999999999</v>
+        <v>6.633789999999999</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006443357467651368</v>
+        <v>0.006142759323120117</v>
       </c>
       <c r="D5" t="n">
-        <v>1.102922677993774</v>
+        <v>1.008614897727966</v>
       </c>
       <c r="E5" t="n">
-        <v>5.151663041114807</v>
+        <v>6.231061410903931</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.45071</v>
+        <v>3.792050000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>3.81462</v>
+        <v>4.19121</v>
       </c>
       <c r="I5" t="n">
-        <v>6.45055</v>
+        <v>7.09269</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -613,28 +613,28 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006382036209106445</v>
+        <v>0.006431913375854493</v>
       </c>
       <c r="D6" t="n">
-        <v>1.159973573684692</v>
+        <v>0.989825987815857</v>
       </c>
       <c r="E6" t="n">
-        <v>2.974028730392456</v>
+        <v>3.485553383827209</v>
       </c>
       <c r="F6" t="n">
-        <v>7.728732967376709</v>
+        <v>9.329317545890808</v>
       </c>
       <c r="G6" t="n">
-        <v>3.39248</v>
+        <v>3.7282</v>
       </c>
       <c r="H6" t="n">
-        <v>3.873460000000001</v>
+        <v>4.25343</v>
       </c>
       <c r="I6" t="n">
-        <v>5.62906</v>
+        <v>6.17726</v>
       </c>
       <c r="J6" t="n">
-        <v>8.326559999999999</v>
+        <v>9.084289999999999</v>
       </c>
     </row>
   </sheetData>
